--- a/로스트아크/데이터테이블/Skill_Effect_Table(수정중).xlsx
+++ b/로스트아크/데이터테이블/Skill_Effect_Table(수정중).xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E5156C-BBB0-494C-B450-3E244B14793C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AD4DE1-3963-4215-B6F6-31F8E38E1A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="4860" yWindow="2184" windowWidth="17280" windowHeight="8880" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
-    <sheet name="Affect Table" sheetId="1" r:id="rId2"/>
+    <sheet name="Skill-Effect Table" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -775,7 +775,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -933,874 +933,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>[f1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피해를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [f2]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>번</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>준다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[f1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피해를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [f2]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>초</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>준다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[f1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피해를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [f2]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>번</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>준다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> N% </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>증가</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [f1]% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>증가시킨다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> N% </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감소</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [f1]% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감소시킨다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> N </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>증가</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [f1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만큼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>증가시킨다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> N </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감소</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [f1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만큼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감소시킨다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보호막 부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시너지 - 방어력 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고정</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대미지</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">DoT </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대미지</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일반</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대미지</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 - 화상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태이상 - 공포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">초 마다 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[f1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의 피해를 준다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYNERGY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABILITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시너지 - 공격력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_pwr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>burn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버서커 - 폭주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소울이터 - 사신화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소울이터 - 영혼 강탈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_burst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_deathload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_soulsnatch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1897,21 +1030,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">스킬 효과가 적용되는 데이터의 값
-예시) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 효과가 적용되는 데이터의 유형
-예시) hit_cnt : 타격 횟수 // hit_interval : 타격 간격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 효과가 발동되는 시간. (애니메이션 기준)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>trigger_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스킬 효과가 발동되는 시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>. (애니메이션 기준)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 효과가 적용되는 데이터의 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스킬 효과의 parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+예시) hit_cnt : 타격 횟수 // hit_interval : 타격 간격 // internal_cooldown : 효과 적용 간격(내부 쿨)
+// max_stack : 최대 중첩 개수 // dispellable : 해제 가능 여부</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1923,7 +1096,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2079,13 +1252,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2372,7 +1538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2478,19 +1644,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2508,13 +1665,25 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -2841,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
@@ -2859,11 +2028,11 @@
   <sheetData>
     <row r="1" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="5" t="s">
@@ -2908,40 +2077,40 @@
       <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>62</v>
+      <c r="F5" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B6" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="44" t="s">
+      <c r="B6" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>66</v>
+      <c r="F6" s="43" t="s">
+        <v>23</v>
       </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B7" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="44" t="s">
+      <c r="B7" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>67</v>
+      <c r="F7" s="43" t="s">
+        <v>24</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -2949,54 +2118,56 @@
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="41"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
       <c r="C9" s="12"/>
       <c r="D9" s="13" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>75</v>
+        <v>28</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
       <c r="C10" s="12"/>
       <c r="D10" s="13" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>72</v>
+        <v>28</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>29</v>
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="2:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="C11" s="12"/>
       <c r="D11" s="13" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="41" t="s">
-        <v>74</v>
+      <c r="F11" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="2:7" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
       <c r="C12" s="12"/>
       <c r="D12" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="41" t="s">
-        <v>73</v>
+        <v>26</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>32</v>
       </c>
       <c r="G12" s="7"/>
     </row>
@@ -3225,7 +2396,7 @@
   <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="A2" sqref="A2:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
@@ -3261,10 +2432,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>2</v>
@@ -3300,28 +2471,10 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="23">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>16</v>
-      </c>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A2" s="28"/>
+      <c r="C2" s="23"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -3345,28 +2498,10 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="23">
-        <v>1001</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A3" s="29"/>
+      <c r="C3" s="23"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -3390,28 +2525,10 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="23">
-        <v>1002</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>18</v>
-      </c>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A4" s="28"/>
+      <c r="C4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -3591,28 +2708,14 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
     </row>
-    <row r="11" spans="1:29" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="23">
-        <v>2000</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>24</v>
-      </c>
+    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -3636,28 +2739,9 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:29" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="23">
-        <v>2001</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>20</v>
-      </c>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="C12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -3712,28 +2796,14 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="23">
-        <v>3000</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>26</v>
-      </c>
+    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -3757,28 +2827,9 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
     </row>
-    <row r="16" spans="1:29" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A16" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="23">
-        <v>3001</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>22</v>
-      </c>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="C16" s="23"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -3834,137 +2885,28 @@
       <c r="AC17" s="2"/>
     </row>
     <row r="18" spans="1:29" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A18" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="23">
-        <v>4000</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A18" s="27"/>
     </row>
     <row r="20" spans="1:29" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A20" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="23">
-        <v>5000</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>36</v>
-      </c>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:29" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A21" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="23">
-        <v>5100</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A21" s="27"/>
     </row>
     <row r="23" spans="1:29" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A23" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="23">
-        <v>6000</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:29" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A24" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="23">
-        <v>6001</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A24" s="27"/>
     </row>
     <row r="26" spans="1:29" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A26" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="23">
-        <v>7000</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A27" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A28" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A28" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
